--- a/Day1/3_30.xlsx
+++ b/Day1/3_30.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="279">
   <si>
     <t xml:space="preserve">accrue </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,578 @@
   </si>
   <si>
     <t xml:space="preserve">김빠진 맛이 없는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">prolific </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tangential </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">epitomize </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다작의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 관련이 없는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 전형이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황하게 하다, 어리둥절하게 만들다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">prescient </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">altercation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formulaic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함축, 언어외 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선견지명의, 미리 아는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언쟁, 논쟁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형화된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pass for </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">backdrop </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recrimination </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">semial </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sink in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cull </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extemporize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~으로 통하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배경 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞비난, 맞대응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중대한, 영향력이 큰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">충분히 이해되다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추려내다, 고르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉흥적으로 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recondite </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">euphemism </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">florid </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fathom </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난해한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완곡어법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화려한 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해하다, 헤아리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stand for </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wordy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단언하다, 선언하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 상징하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장황한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">anthology </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cilche </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">colloqual </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehensible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">confounded </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">copious </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eloquent </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">encyclopedia </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">epic </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gist </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">illiterate </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">memoir </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작품집, 선집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진부한 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구어체의, 일상 회화의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해할 수 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍부한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 장하는, 설득력 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">백과사전 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서사시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요점, 요지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문맹의 글을 모르는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회고록 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">notion </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">preface </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">proofread </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rapt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">remark </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reminiscence </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rhetorical </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">saga </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개념, 관념 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문, 머리말, 서문을 쓰다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 몰입한 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견, 의견을 말하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회고, 회상 추억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수사적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅담 무용담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scoff </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">syllable </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">synonymous </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">taunt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unfold </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비웃다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의어의 같은 뜻의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비웃다 조롱하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(이야기가) 펼쳐지다 전개되다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(의견을) 강경하게 밝히는, 목소리의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">abridged </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acumen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">allusive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">denote </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">effusive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">embellish </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통찰력, 안목, 일에 대한 감각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암시하다, 언급하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">암시적인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타내다 의미하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정이 넘쳐 흐르는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미화하다 아름답게하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말을 더듬다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperbole </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inarticulate </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">make out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">misconstrue </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">misnomer </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mordant </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obfuscate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quirk </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rambling </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">temerity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tome </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trenchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbatim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">verbose </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발음이 정확하지 않은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오해하다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐리게하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신랄한 통렬한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기벽 이상한 버릇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횡설수설하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단함 명료함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">무모함, 만용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학술서, 두꺼운 책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 신랄한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말 그대로, 축어적으로 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말이 많은 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1452,6 +2024,582 @@
         <v>135</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
